--- a/src/main/webapp/WEB-INF/Template/department.xlsx
+++ b/src/main/webapp/WEB-INF/Template/department.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>professor_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>office_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,7 +393,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -412,15 +408,15 @@
     <col min="8" max="8" width="18.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -433,9 +429,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
